--- a/data/trans_orig/iP31B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP31B_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2E713F-57BE-4150-B408-E51460D2CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB363B45-D26D-43F6-9245-EF4825F4DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC0AA579-A15C-41DF-8830-577251523F2C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F26C1C29-1AE8-4A55-9668-A1574D54D89B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,175 +104,175 @@
     <t>95,56%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>89,62%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>89,36%</t>
   </si>
   <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>91,39%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -281,109 +281,109 @@
     <t>10,58%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>88,69%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>90,58%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335FA40A-9308-44F7-80D2-76B43A0473D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E446DC-83A0-476F-B3F3-7DD958663FBF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/iP31B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP31B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB363B45-D26D-43F6-9245-EF4825F4DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B9A70A-3CC2-4136-B256-13C6F34E8E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F26C1C29-1AE8-4A55-9668-A1574D54D89B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CFEAFF13-3C34-4185-B853-82ACBF1E07E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
-  <si>
-    <t>Menores según si realizan algún voluntariado en 2023 (Tasa respuesta: 96,25%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+  <si>
+    <t>Menores que realizan algún voluntariado en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,325 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -798,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E446DC-83A0-476F-B3F3-7DD958663FBF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8817F5-64EB-4E1F-A33F-7C5D8EACF93F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -916,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9159</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -931,85 +901,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>12459</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="D5" s="7">
-        <v>10894</v>
+        <v>105092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
+        <v>159</v>
+      </c>
+      <c r="I5" s="7">
+        <v>132985</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="7">
-        <v>15999</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="N5" s="7">
-        <v>26893</v>
+        <v>238077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1018,153 +988,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>10894</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136285</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="N6" s="7">
-        <v>26893</v>
+        <v>250536</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>3529</v>
+        <v>14386</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>10545</v>
+        <v>28510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>14074</v>
+        <v>42896</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="D8" s="7">
-        <v>108919</v>
+        <v>170824</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="I8" s="7">
-        <v>91090</v>
+        <v>217617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>294</v>
+        <v>533</v>
       </c>
       <c r="N8" s="7">
-        <v>200009</v>
+        <v>388441</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1173,153 +1143,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>185210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>246127</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>589</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>431337</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>30233</v>
+        <v>6250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>15371</v>
+        <v>14970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>45604</v>
+        <v>21220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="D11" s="7">
-        <v>211275</v>
+        <v>181330</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="I11" s="7">
-        <v>171592</v>
+        <v>168119</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="N11" s="7">
-        <v>382868</v>
+        <v>349450</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,153 +1298,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>241508</v>
+        <v>187580</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>186963</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>589</v>
+        <v>442</v>
       </c>
       <c r="N12" s="7">
-        <v>428472</v>
+        <v>370670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>14737</v>
+        <v>18245</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>6625</v>
+        <v>18484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>21362</v>
+        <v>36728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>156382</v>
+        <v>145727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>159258</v>
+        <v>158825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N14" s="7">
-        <v>315641</v>
+        <v>304553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,153 +1453,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>163972</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>165883</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="N15" s="7">
-        <v>337003</v>
+        <v>341281</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>18142</v>
+        <v>48040</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>18987</v>
+        <v>65264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="N16" s="7">
-        <v>37129</v>
+        <v>113304</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>207</v>
+        <v>848</v>
       </c>
       <c r="D17" s="7">
-        <v>153314</v>
+        <v>602974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>211</v>
+        <v>852</v>
       </c>
       <c r="I17" s="7">
-        <v>148953</v>
+        <v>677547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>418</v>
+        <v>1700</v>
       </c>
       <c r="N17" s="7">
-        <v>302267</v>
+        <v>1280521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,217 +1608,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>911</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>651014</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>234</v>
+        <v>937</v>
       </c>
       <c r="I18" s="7">
-        <v>167940</v>
+        <v>742811</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>466</v>
+        <v>1848</v>
       </c>
       <c r="N18" s="7">
-        <v>339396</v>
+        <v>1393825</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7">
-        <v>66640</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7">
-        <v>63</v>
-      </c>
-      <c r="I19" s="7">
-        <v>51528</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="7">
-        <v>148</v>
-      </c>
-      <c r="N19" s="7">
-        <v>118169</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>852</v>
-      </c>
-      <c r="D20" s="7">
-        <v>640786</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>848</v>
-      </c>
-      <c r="I20" s="7">
-        <v>586892</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1700</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1227677</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>937</v>
-      </c>
-      <c r="D21" s="7">
-        <v>707426</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>911</v>
-      </c>
-      <c r="I21" s="7">
-        <v>638420</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1848</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1345846</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
